--- a/Code/Results/Cases/Case_3_82/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_82/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.334653603555125</v>
+        <v>2.136171443821411</v>
       </c>
       <c r="C2">
-        <v>0.4325694103575302</v>
+        <v>0.1431366085257366</v>
       </c>
       <c r="D2">
-        <v>0.03396533479665464</v>
+        <v>0.09558933485272192</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.393958646512147</v>
+        <v>2.235241546664398</v>
       </c>
       <c r="G2">
-        <v>1.183174148736242</v>
+        <v>1.582972206320221</v>
       </c>
       <c r="H2">
-        <v>0.741138434756067</v>
+        <v>1.403129638666357</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06499370929219594</v>
+        <v>0.1806093174427268</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.32090840117786</v>
+        <v>0.3960184363469921</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.797665853867052</v>
+        <v>1.655404837749509</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.908151662349837</v>
+        <v>2.028139294653442</v>
       </c>
       <c r="C3">
-        <v>0.3800700106489785</v>
+        <v>0.1270072910099884</v>
       </c>
       <c r="D3">
-        <v>0.03235646508133172</v>
+        <v>0.09539220275519611</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.308146534617421</v>
+        <v>2.230732286596563</v>
       </c>
       <c r="G3">
-        <v>1.095063716519363</v>
+        <v>1.573964234441632</v>
       </c>
       <c r="H3">
-        <v>0.7088676646144876</v>
+        <v>1.40532049914836</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06648742104283301</v>
+        <v>0.1819304149090879</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2876578834769248</v>
+        <v>0.3892893093184</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8499863874983813</v>
+        <v>1.676187196226938</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.648906159350247</v>
+        <v>1.962745785422783</v>
       </c>
       <c r="C4">
-        <v>0.3479531914606468</v>
+        <v>0.1170518062654651</v>
       </c>
       <c r="D4">
-        <v>0.03138544449454628</v>
+        <v>0.09528548125140546</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.25835452360927</v>
+        <v>2.229240087674711</v>
       </c>
       <c r="G4">
-        <v>1.043692579971406</v>
+        <v>1.569485028856064</v>
       </c>
       <c r="H4">
-        <v>0.690574484096075</v>
+        <v>1.407389980972781</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06749156404496759</v>
+        <v>0.1827985134864001</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2675664399310165</v>
+        <v>0.3853269432126609</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.883487848503413</v>
+        <v>1.689585237883247</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.543839729849935</v>
+        <v>1.936334071356384</v>
       </c>
       <c r="C5">
-        <v>0.3348859538194517</v>
+        <v>0.1129817907936399</v>
       </c>
       <c r="D5">
-        <v>0.03099370115968014</v>
+        <v>0.0952456103371695</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.23874195648412</v>
+        <v>2.228952577871112</v>
       </c>
       <c r="G5">
-        <v>1.023392518786792</v>
+        <v>1.567923534066708</v>
       </c>
       <c r="H5">
-        <v>0.6834782926959804</v>
+        <v>1.408415285392579</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06792204761030973</v>
+        <v>0.1831666005464037</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2594534336181482</v>
+        <v>0.3837549213471618</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8974754042723525</v>
+        <v>1.695205276515527</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.526426141350385</v>
+        <v>1.931962739894402</v>
       </c>
       <c r="C6">
-        <v>0.3327171425997335</v>
+        <v>0.1123051783736457</v>
       </c>
       <c r="D6">
-        <v>0.03092888376865233</v>
+        <v>0.09523920892648619</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.235524848391989</v>
+        <v>2.228924186946202</v>
       </c>
       <c r="G6">
-        <v>1.020058547305183</v>
+        <v>1.567680164172074</v>
       </c>
       <c r="H6">
-        <v>0.6823209495272806</v>
+        <v>1.408596522760533</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06799479821554044</v>
+        <v>0.1832285869636578</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2581105691149475</v>
+        <v>0.3834964684697439</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8998179882558475</v>
+        <v>1.696148154203254</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.647486960778451</v>
+        <v>1.962388628687165</v>
       </c>
       <c r="C7">
-        <v>0.347776890095588</v>
+        <v>0.1169969695412476</v>
       </c>
       <c r="D7">
-        <v>0.0313801456389271</v>
+        <v>0.09528492885996087</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.258087340333532</v>
+        <v>2.229234912783213</v>
       </c>
       <c r="G7">
-        <v>1.043416305238665</v>
+        <v>1.569462902664043</v>
       </c>
       <c r="H7">
-        <v>0.6904773617916646</v>
+        <v>1.407403071992135</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0674972842583319</v>
+        <v>0.1828034196002708</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2674567329065241</v>
+        <v>0.3853055694655154</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8836751449762401</v>
+        <v>1.689660383070043</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.186998501059691</v>
+        <v>2.098727478320313</v>
       </c>
       <c r="C8">
-        <v>0.4144374505549138</v>
+        <v>0.1375860148507115</v>
       </c>
       <c r="D8">
-        <v>0.03340692745867457</v>
+        <v>0.09551840280801116</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.363737961087281</v>
+        <v>2.233421556912788</v>
       </c>
       <c r="G8">
-        <v>1.152194760178929</v>
+        <v>1.579647574017713</v>
       </c>
       <c r="H8">
-        <v>0.7296807291748877</v>
+        <v>1.403734625851911</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06549031890279622</v>
+        <v>0.1810530213018726</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3093717863425525</v>
+        <v>0.3936631371924051</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8154136483801206</v>
+        <v>1.662438204905987</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.269922086628981</v>
+        <v>2.373523871562668</v>
       </c>
       <c r="C9">
-        <v>0.546545085736426</v>
+        <v>0.1775500229222189</v>
       </c>
       <c r="D9">
-        <v>0.03752916699014719</v>
+        <v>0.09608910797196302</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.596367911817723</v>
+        <v>2.251782433403108</v>
       </c>
       <c r="G9">
-        <v>1.389712338657262</v>
+        <v>1.607997324705394</v>
       </c>
       <c r="H9">
-        <v>0.8198066277408316</v>
+        <v>1.402296189230469</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06227339248268393</v>
+        <v>0.1780717398730509</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3944959057783564</v>
+        <v>0.4113932729431724</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6929906841899669</v>
+        <v>1.614118265443405</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.087023273402508</v>
+        <v>2.579958862961689</v>
       </c>
       <c r="C10">
-        <v>0.6451448541777438</v>
+        <v>0.2066661731218176</v>
       </c>
       <c r="D10">
-        <v>0.04067034911876988</v>
+        <v>0.09657630261961003</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.786540236951112</v>
+        <v>2.271496764255957</v>
       </c>
       <c r="G10">
-        <v>1.582849358748973</v>
+        <v>1.63398337792475</v>
       </c>
       <c r="H10">
-        <v>0.8958906791348511</v>
+        <v>1.404762057382783</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0603907430879147</v>
+        <v>0.1761557247661649</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.459363805768092</v>
+        <v>0.4252353893227081</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6107957257227508</v>
+        <v>1.581707905948335</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.46496460134864</v>
+        <v>2.674861369040059</v>
       </c>
       <c r="C11">
-        <v>0.6905089616351461</v>
+        <v>0.2198598751995462</v>
       </c>
       <c r="D11">
-        <v>0.04212961907813551</v>
+        <v>0.09681250068269875</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.878163995861073</v>
+        <v>2.281825211163778</v>
       </c>
       <c r="G11">
-        <v>1.675719894683198</v>
+        <v>1.646936228270107</v>
       </c>
       <c r="H11">
-        <v>0.9330907802676904</v>
+        <v>1.40665200621666</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05964915103234603</v>
+        <v>0.1753434911643943</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4895133923796635</v>
+        <v>0.4317094522660909</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5752782712953373</v>
+        <v>1.567635533358033</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.609121603763242</v>
+        <v>2.710941234589313</v>
       </c>
       <c r="C12">
-        <v>0.7077767316476979</v>
+        <v>0.2248486416406763</v>
       </c>
       <c r="D12">
-        <v>0.04268712075838721</v>
+        <v>0.09690402146280519</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.9136809239467</v>
+        <v>2.285932521020825</v>
       </c>
       <c r="G12">
-        <v>1.711697567975023</v>
+        <v>1.652004691698124</v>
       </c>
       <c r="H12">
-        <v>0.9475911604641851</v>
+        <v>1.407478382304674</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05938581400274145</v>
+        <v>0.175044446118882</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5010347514450331</v>
+        <v>0.4341864388861438</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5621162902015726</v>
+        <v>1.562403348625793</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.578026196920348</v>
+        <v>2.703164468780358</v>
       </c>
       <c r="C13">
-        <v>0.7040535611432119</v>
+        <v>0.2237745509457056</v>
       </c>
       <c r="D13">
-        <v>0.04256682506863285</v>
+        <v>0.09688421869563157</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.905993745366274</v>
+        <v>2.285039205775277</v>
       </c>
       <c r="G13">
-        <v>1.703911609470566</v>
+        <v>1.650905823402923</v>
       </c>
       <c r="H13">
-        <v>0.9444491514917672</v>
+        <v>1.407295480673071</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05944173406045294</v>
+        <v>0.1751084715517877</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4985485712881257</v>
+        <v>0.433651847167809</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5649378511601295</v>
+        <v>1.563525888589954</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.47680280073422</v>
+        <v>2.677826831949346</v>
       </c>
       <c r="C14">
-        <v>0.6919277028649446</v>
+        <v>0.2202704524411843</v>
       </c>
       <c r="D14">
-        <v>0.04217538333818283</v>
+        <v>0.0968199886117489</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.881069018839767</v>
+        <v>2.282159187728993</v>
       </c>
       <c r="G14">
-        <v>1.678663031390442</v>
+        <v>1.647349932599781</v>
       </c>
       <c r="H14">
-        <v>0.934275196783716</v>
+        <v>1.406717772907854</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05962712974383066</v>
+        <v>0.1753187176320274</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4904590955573838</v>
+        <v>0.4319127268769023</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5741895496658804</v>
+        <v>1.567203138898088</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.414940290476238</v>
+        <v>2.662325317374439</v>
       </c>
       <c r="C15">
-        <v>0.6845124056299596</v>
+        <v>0.2181231265605277</v>
       </c>
       <c r="D15">
-        <v>0.04193627051987647</v>
+        <v>0.09678091589108817</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.865911514403322</v>
+        <v>2.28042065438413</v>
       </c>
       <c r="G15">
-        <v>1.663305780129406</v>
+        <v>1.645193162250109</v>
       </c>
       <c r="H15">
-        <v>0.9280985019154286</v>
+        <v>1.406378332534928</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05974299787342119</v>
+        <v>0.1754486100960122</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4855180328365378</v>
+        <v>0.430850770785014</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5798945248955336</v>
+        <v>1.569468162106643</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.062461239515812</v>
+        <v>2.57377671357267</v>
       </c>
       <c r="C16">
-        <v>0.6421918016012853</v>
+        <v>0.2058028985491944</v>
       </c>
       <c r="D16">
-        <v>0.04057563786914287</v>
+        <v>0.09656115821567113</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.780662434819504</v>
+        <v>2.270849194816876</v>
       </c>
       <c r="G16">
-        <v>1.57688829704577</v>
+        <v>1.633159716200112</v>
       </c>
       <c r="H16">
-        <v>0.8935150915719134</v>
+        <v>1.404654022368874</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06044159990823772</v>
+        <v>0.1762100002130076</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4574073713642406</v>
+        <v>0.4248158529025403</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6131560975616797</v>
+        <v>1.58264109226363</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.847920902867656</v>
+        <v>2.519709205791742</v>
       </c>
       <c r="C17">
-        <v>0.6163710702971628</v>
+        <v>0.1982316677145661</v>
       </c>
       <c r="D17">
-        <v>0.03974906969116176</v>
+        <v>0.09643006335415194</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.729732872030908</v>
+        <v>2.265326202967984</v>
       </c>
       <c r="G17">
-        <v>1.525218064966452</v>
+        <v>1.626067977858668</v>
       </c>
       <c r="H17">
-        <v>0.8729904415309875</v>
+        <v>1.403793130833378</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06090024701661889</v>
+        <v>0.1766922895154046</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4403348422679443</v>
+        <v>0.4211589551231754</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6340532970478021</v>
+        <v>1.590894318331086</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.725100817139264</v>
+        <v>2.488704619512703</v>
       </c>
       <c r="C18">
-        <v>0.6015666758219709</v>
+        <v>0.1938720605287472</v>
       </c>
       <c r="D18">
-        <v>0.03927646783030525</v>
+        <v>0.09635603356276334</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.700915220111128</v>
+        <v>2.262277529136583</v>
       </c>
       <c r="G18">
-        <v>1.495964592627928</v>
+        <v>1.622095468882065</v>
       </c>
       <c r="H18">
-        <v>0.8614262014309872</v>
+        <v>1.403370262945089</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06117479401967429</v>
+        <v>0.17697527829813</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4305746958511207</v>
+        <v>0.4190722894535384</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6462479529338054</v>
+        <v>1.595704526313594</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.683611200478822</v>
+        <v>2.478223096709485</v>
       </c>
       <c r="C19">
-        <v>0.5965617773440215</v>
+        <v>0.1923951423905805</v>
       </c>
       <c r="D19">
-        <v>0.03911692145902279</v>
+        <v>0.09633120461516498</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.691237284521421</v>
+        <v>2.26126726912814</v>
       </c>
       <c r="G19">
-        <v>1.486137318204271</v>
+        <v>1.620768708837289</v>
       </c>
       <c r="H19">
-        <v>0.8575509512716621</v>
+        <v>1.403239496920634</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0612695681914559</v>
+        <v>0.1770720535339798</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4272799481256726</v>
+        <v>0.4183686485891087</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6504064054112986</v>
+        <v>1.59734402398681</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.870698301702362</v>
+        <v>2.525455100119473</v>
       </c>
       <c r="C20">
-        <v>0.6191147560629418</v>
+        <v>0.199038138711785</v>
       </c>
       <c r="D20">
-        <v>0.03983676386215507</v>
+        <v>0.09644387670467225</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.73510458574404</v>
+        <v>2.265900882975657</v>
       </c>
       <c r="G20">
-        <v>1.530669616777146</v>
+        <v>1.626811880609608</v>
       </c>
       <c r="H20">
-        <v>0.8751500981931883</v>
+        <v>1.403877290439993</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06085030437608552</v>
+        <v>0.1766403706380828</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4421459973494279</v>
+        <v>0.4215465118899573</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.63181050132438</v>
+        <v>1.590009209067942</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.50650516967255</v>
+        <v>2.685265251694148</v>
       </c>
       <c r="C21">
-        <v>0.6954868002306682</v>
+        <v>0.2212998921098688</v>
       </c>
       <c r="D21">
-        <v>0.0422902213643539</v>
+        <v>0.09683879829545106</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.888367007105444</v>
+        <v>2.282999791003263</v>
       </c>
       <c r="G21">
-        <v>1.686056423544642</v>
+        <v>1.648389940426483</v>
       </c>
       <c r="H21">
-        <v>0.9372519618958393</v>
+        <v>1.406884453677151</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05957219169824768</v>
+        <v>0.1752567318118494</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4928322347930845</v>
+        <v>0.4324228599886482</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5714641381842913</v>
+        <v>1.566120414912903</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.92817343655679</v>
+        <v>2.790539850379048</v>
       </c>
       <c r="C22">
-        <v>0.7459299433070612</v>
+        <v>0.2358060838079723</v>
       </c>
       <c r="D22">
-        <v>0.04392260994213615</v>
+        <v>0.0971090048304255</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.993364541446795</v>
+        <v>2.295318491272994</v>
       </c>
       <c r="G22">
-        <v>1.792377844847607</v>
+        <v>1.663445814519719</v>
       </c>
       <c r="H22">
-        <v>0.9802716499226847</v>
+        <v>1.409495122421589</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0588393240575158</v>
+        <v>0.1744021610910167</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5265735218784897</v>
+        <v>0.4396791920583638</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5337111457086259</v>
+        <v>1.551071542582058</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.70250933528672</v>
+        <v>2.734277123423567</v>
       </c>
       <c r="C23">
-        <v>0.718953295422466</v>
+        <v>0.2280678087917636</v>
       </c>
       <c r="D23">
-        <v>0.04304852870649611</v>
+        <v>0.09696368888151596</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.936852630924733</v>
+        <v>2.288638951099472</v>
       </c>
       <c r="G23">
-        <v>1.735164065342019</v>
+        <v>1.655322722863417</v>
       </c>
       <c r="H23">
-        <v>0.9570739068798275</v>
+        <v>1.408042637653011</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05922074823671508</v>
+        <v>0.1748537148022749</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5085045347885426</v>
+        <v>0.4357928354476428</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5536997417522196</v>
+        <v>1.55905175339926</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.860399024278422</v>
+        <v>2.522857133477544</v>
       </c>
       <c r="C24">
-        <v>0.6178742114237821</v>
+        <v>0.1986735543734426</v>
       </c>
       <c r="D24">
-        <v>0.03979710925968405</v>
+        <v>0.09643762751888829</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.732674599971915</v>
+        <v>2.265640675939053</v>
       </c>
       <c r="G24">
-        <v>1.528203567589799</v>
+        <v>1.626475236336233</v>
       </c>
       <c r="H24">
-        <v>0.8741729864670447</v>
+        <v>1.403839017405062</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06087284967539119</v>
+        <v>0.1766638253629402</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4413270034891497</v>
+        <v>0.4213712484628616</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6328239081744274</v>
+        <v>1.590409163516521</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.973678743721337</v>
+        <v>2.298387212453122</v>
       </c>
       <c r="C25">
-        <v>0.5105902636145743</v>
+        <v>0.1667821747808489</v>
       </c>
       <c r="D25">
-        <v>0.036396010116718</v>
+        <v>0.09592272894656517</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.530344323620568</v>
+        <v>2.245724875653991</v>
       </c>
       <c r="G25">
-        <v>1.322487022289664</v>
+        <v>1.599425908588898</v>
       </c>
       <c r="H25">
-        <v>0.7938315930118165</v>
+        <v>1.402067733234816</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06306252159847503</v>
+        <v>0.1788300258675495</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3711009797447957</v>
+        <v>0.4064534231831658</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7248090014168778</v>
+        <v>1.626647709989514</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_82/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_82/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.136171443821411</v>
+        <v>3.334653603555125</v>
       </c>
       <c r="C2">
-        <v>0.1431366085257366</v>
+        <v>0.4325694103576154</v>
       </c>
       <c r="D2">
-        <v>0.09558933485272192</v>
+        <v>0.03396533479658714</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.235241546664398</v>
+        <v>1.393958646512147</v>
       </c>
       <c r="G2">
-        <v>1.582972206320221</v>
+        <v>1.183174148736228</v>
       </c>
       <c r="H2">
-        <v>1.403129638666357</v>
+        <v>0.741138434756067</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1806093174427268</v>
+        <v>0.06499370929218706</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3960184363469921</v>
+        <v>0.3209084011777747</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.655404837749509</v>
+        <v>0.7976658538670751</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.028139294653442</v>
+        <v>2.908151662350008</v>
       </c>
       <c r="C3">
-        <v>0.1270072910099884</v>
+        <v>0.3800700106492059</v>
       </c>
       <c r="D3">
-        <v>0.09539220275519611</v>
+        <v>0.03235646508138501</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.230732286596563</v>
+        <v>1.308146534617407</v>
       </c>
       <c r="G3">
-        <v>1.573964234441632</v>
+        <v>1.095063716519377</v>
       </c>
       <c r="H3">
-        <v>1.40532049914836</v>
+        <v>0.7088676646144734</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1819304149090879</v>
+        <v>0.06648742104287741</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3892893093184</v>
+        <v>0.2876578834769816</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.676187196226938</v>
+        <v>0.8499863874983804</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.962745785422783</v>
+        <v>2.648906159350304</v>
       </c>
       <c r="C4">
-        <v>0.1170518062654651</v>
+        <v>0.3479531914608742</v>
       </c>
       <c r="D4">
-        <v>0.09528548125140546</v>
+        <v>0.03138544449461023</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.229240087674711</v>
+        <v>1.258354523609285</v>
       </c>
       <c r="G4">
-        <v>1.569485028856064</v>
+        <v>1.04369257997142</v>
       </c>
       <c r="H4">
-        <v>1.407389980972781</v>
+        <v>0.6905744840959898</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1827985134864001</v>
+        <v>0.06749156404487877</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3853269432126609</v>
+        <v>0.2675664399311444</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.689585237883247</v>
+        <v>0.8834878485034299</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.936334071356384</v>
+        <v>2.543839729849708</v>
       </c>
       <c r="C5">
-        <v>0.1129817907936399</v>
+        <v>0.3348859538195939</v>
       </c>
       <c r="D5">
-        <v>0.0952456103371695</v>
+        <v>0.03099370115955224</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.228952577871112</v>
+        <v>1.238741956484105</v>
       </c>
       <c r="G5">
-        <v>1.567923534066708</v>
+        <v>1.023392518786707</v>
       </c>
       <c r="H5">
-        <v>1.408415285392579</v>
+        <v>0.6834782926959804</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1831666005464037</v>
+        <v>0.06792204761026177</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3837549213471618</v>
+        <v>0.259453433618134</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.695205276515527</v>
+        <v>0.897475404272285</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.931962739894402</v>
+        <v>2.526426141350555</v>
       </c>
       <c r="C6">
-        <v>0.1123051783736457</v>
+        <v>0.332717142600103</v>
       </c>
       <c r="D6">
-        <v>0.09523920892648619</v>
+        <v>0.03092888376865233</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.228924186946202</v>
+        <v>1.235524848391989</v>
       </c>
       <c r="G6">
-        <v>1.567680164172074</v>
+        <v>1.020058547305183</v>
       </c>
       <c r="H6">
-        <v>1.408596522760533</v>
+        <v>0.6823209495273943</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1832285869636578</v>
+        <v>0.06799479821546939</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3834964684697439</v>
+        <v>0.2581105691149332</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.696148154203254</v>
+        <v>0.8998179882559079</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.962388628687165</v>
+        <v>2.647486960778338</v>
       </c>
       <c r="C7">
-        <v>0.1169969695412476</v>
+        <v>0.3477768900955596</v>
       </c>
       <c r="D7">
-        <v>0.09528492885996087</v>
+        <v>0.03138014563899461</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.229234912783213</v>
+        <v>1.258087340333518</v>
       </c>
       <c r="G7">
-        <v>1.569462902664043</v>
+        <v>1.043416305238665</v>
       </c>
       <c r="H7">
-        <v>1.407403071992135</v>
+        <v>0.6904773617916646</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1828034196002708</v>
+        <v>0.06749728425833013</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3853055694655154</v>
+        <v>0.2674567329064246</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.689660383070043</v>
+        <v>0.8836751449762517</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.098727478320313</v>
+        <v>3.186998501059577</v>
       </c>
       <c r="C8">
-        <v>0.1375860148507115</v>
+        <v>0.4144374505549706</v>
       </c>
       <c r="D8">
-        <v>0.09551840280801116</v>
+        <v>0.03340692745856089</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.233421556912788</v>
+        <v>1.363737961087296</v>
       </c>
       <c r="G8">
-        <v>1.579647574017713</v>
+        <v>1.152194760178944</v>
       </c>
       <c r="H8">
-        <v>1.403734625851911</v>
+        <v>0.7296807291748593</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1810530213018726</v>
+        <v>0.06549031890270562</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3936631371924051</v>
+        <v>0.3093717863425383</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.662438204905987</v>
+        <v>0.815413648380197</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.373523871562668</v>
+        <v>4.269922086628981</v>
       </c>
       <c r="C9">
-        <v>0.1775500229222189</v>
+        <v>0.5465450857363976</v>
       </c>
       <c r="D9">
-        <v>0.09608910797196302</v>
+        <v>0.03752916699007258</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.251782433403108</v>
+        <v>1.596367911817708</v>
       </c>
       <c r="G9">
-        <v>1.607997324705394</v>
+        <v>1.38971233865729</v>
       </c>
       <c r="H9">
-        <v>1.402296189230469</v>
+        <v>0.8198066277408316</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1780717398730509</v>
+        <v>0.06227339248268748</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4113932729431724</v>
+        <v>0.3944959057782853</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.614118265443405</v>
+        <v>0.6929906841899678</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.579958862961689</v>
+        <v>5.087023273402565</v>
       </c>
       <c r="C10">
-        <v>0.2066661731218176</v>
+        <v>0.6451448541778575</v>
       </c>
       <c r="D10">
-        <v>0.09657630261961003</v>
+        <v>0.04067034911864909</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.271496764255957</v>
+        <v>1.786540236951112</v>
       </c>
       <c r="G10">
-        <v>1.63398337792475</v>
+        <v>1.582849358748916</v>
       </c>
       <c r="H10">
-        <v>1.404762057382783</v>
+        <v>0.8958906791348511</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1761557247661649</v>
+        <v>0.06039074308797865</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4252353893227081</v>
+        <v>0.4593638057680494</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.581707905948335</v>
+        <v>0.6107957257228076</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.674861369040059</v>
+        <v>5.46496460134864</v>
       </c>
       <c r="C11">
-        <v>0.2198598751995462</v>
+        <v>0.6905089616352029</v>
       </c>
       <c r="D11">
-        <v>0.09681250068269875</v>
+        <v>0.04212961907833446</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.281825211163778</v>
+        <v>1.878163995861073</v>
       </c>
       <c r="G11">
-        <v>1.646936228270107</v>
+        <v>1.675719894683283</v>
       </c>
       <c r="H11">
-        <v>1.40665200621666</v>
+        <v>0.9330907802678041</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1753434911643943</v>
+        <v>0.05964915103233892</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4317094522660909</v>
+        <v>0.4895133923796067</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.567635533358033</v>
+        <v>0.5752782712953763</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.710941234589313</v>
+        <v>5.609121603763128</v>
       </c>
       <c r="C12">
-        <v>0.2248486416406763</v>
+        <v>0.7077767316475558</v>
       </c>
       <c r="D12">
-        <v>0.09690402146280519</v>
+        <v>0.04268712075862524</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.285932521020825</v>
+        <v>1.913680923946686</v>
       </c>
       <c r="G12">
-        <v>1.652004691698124</v>
+        <v>1.711697567975023</v>
       </c>
       <c r="H12">
-        <v>1.407478382304674</v>
+        <v>0.947591160464043</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.175044446118882</v>
+        <v>0.05938581400274856</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4341864388861438</v>
+        <v>0.5010347514450331</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.562403348625793</v>
+        <v>0.5621162902015922</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.703164468780358</v>
+        <v>5.578026196920234</v>
       </c>
       <c r="C13">
-        <v>0.2237745509457056</v>
+        <v>0.7040535611432119</v>
       </c>
       <c r="D13">
-        <v>0.09688421869563157</v>
+        <v>0.0425668250684339</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.285039205775277</v>
+        <v>1.905993745366274</v>
       </c>
       <c r="G13">
-        <v>1.650905823402923</v>
+        <v>1.703911609470595</v>
       </c>
       <c r="H13">
-        <v>1.407295480673071</v>
+        <v>0.9444491514918809</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1751084715517877</v>
+        <v>0.05944173406045294</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.433651847167809</v>
+        <v>0.4985485712880831</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.563525888589954</v>
+        <v>0.564937851160126</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.677826831949346</v>
+        <v>5.47680280073422</v>
       </c>
       <c r="C14">
-        <v>0.2202704524411843</v>
+        <v>0.6919277028651152</v>
       </c>
       <c r="D14">
-        <v>0.0968199886117489</v>
+        <v>0.04217538333817572</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.282159187728993</v>
+        <v>1.881069018839767</v>
       </c>
       <c r="G14">
-        <v>1.647349932599781</v>
+        <v>1.678663031390414</v>
       </c>
       <c r="H14">
-        <v>1.406717772907854</v>
+        <v>0.934275196783716</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1753187176320274</v>
+        <v>0.05962712974378093</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4319127268769023</v>
+        <v>0.4904590955574974</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.567203138898088</v>
+        <v>0.5741895496658778</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.662325317374439</v>
+        <v>5.414940290476409</v>
       </c>
       <c r="C15">
-        <v>0.2181231265605277</v>
+        <v>0.6845124056299312</v>
       </c>
       <c r="D15">
-        <v>0.09678091589108817</v>
+        <v>0.041936270519777</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.28042065438413</v>
+        <v>1.865911514403322</v>
       </c>
       <c r="G15">
-        <v>1.645193162250109</v>
+        <v>1.663305780129434</v>
       </c>
       <c r="H15">
-        <v>1.406378332534928</v>
+        <v>0.9280985019155139</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1754486100960122</v>
+        <v>0.05974299787336435</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.430850770785014</v>
+        <v>0.4855180328365947</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.569468162106643</v>
+        <v>0.5798945248955212</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.57377671357267</v>
+        <v>5.062461239515926</v>
       </c>
       <c r="C16">
-        <v>0.2058028985491944</v>
+        <v>0.6421918016014274</v>
       </c>
       <c r="D16">
-        <v>0.09656115821567113</v>
+        <v>0.04057563786913576</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.270849194816876</v>
+        <v>1.78066243481949</v>
       </c>
       <c r="G16">
-        <v>1.633159716200112</v>
+        <v>1.576888297045855</v>
       </c>
       <c r="H16">
-        <v>1.404654022368874</v>
+        <v>0.8935150915719419</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1762100002130076</v>
+        <v>0.06044159990818443</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4248158529025403</v>
+        <v>0.4574073713642832</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.58264109226363</v>
+        <v>0.6131560975616663</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.519709205791742</v>
+        <v>4.84792090286777</v>
       </c>
       <c r="C17">
-        <v>0.1982316677145661</v>
+        <v>0.6163710702971059</v>
       </c>
       <c r="D17">
-        <v>0.09643006335415194</v>
+        <v>0.03974906969136782</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.265326202967984</v>
+        <v>1.729732872030908</v>
       </c>
       <c r="G17">
-        <v>1.626067977858668</v>
+        <v>1.525218064966452</v>
       </c>
       <c r="H17">
-        <v>1.403793130833378</v>
+        <v>0.8729904415309875</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1766922895154046</v>
+        <v>0.06090024701664021</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4211589551231754</v>
+        <v>0.4403348422678874</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.590894318331086</v>
+        <v>0.6340532970478092</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.488704619512703</v>
+        <v>4.725100817139378</v>
       </c>
       <c r="C18">
-        <v>0.1938720605287472</v>
+        <v>0.6015666758221414</v>
       </c>
       <c r="D18">
-        <v>0.09635603356276334</v>
+        <v>0.0392764678304367</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.262277529136583</v>
+        <v>1.700915220111142</v>
       </c>
       <c r="G18">
-        <v>1.622095468882065</v>
+        <v>1.495964592627956</v>
       </c>
       <c r="H18">
-        <v>1.403370262945089</v>
+        <v>0.8614262014310157</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.17697527829813</v>
+        <v>0.06117479401957837</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4190722894535384</v>
+        <v>0.4305746958512344</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.595704526313594</v>
+        <v>0.6462479529338188</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.478223096709485</v>
+        <v>4.683611200478765</v>
       </c>
       <c r="C19">
-        <v>0.1923951423905805</v>
+        <v>0.5965617773439931</v>
       </c>
       <c r="D19">
-        <v>0.09633120461516498</v>
+        <v>0.03911692145910806</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.26126726912814</v>
+        <v>1.691237284521407</v>
       </c>
       <c r="G19">
-        <v>1.620768708837289</v>
+        <v>1.486137318204214</v>
       </c>
       <c r="H19">
-        <v>1.403239496920634</v>
+        <v>0.8575509512717474</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1770720535339798</v>
+        <v>0.06126956819142038</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4183686485891087</v>
+        <v>0.4272799481257437</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.59734402398681</v>
+        <v>0.6504064054112284</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.525455100119473</v>
+        <v>4.870698301702191</v>
       </c>
       <c r="C20">
-        <v>0.199038138711785</v>
+        <v>0.6191147560628849</v>
       </c>
       <c r="D20">
-        <v>0.09644387670467225</v>
+        <v>0.03983676386235757</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.265900882975657</v>
+        <v>1.73510458574404</v>
       </c>
       <c r="G20">
-        <v>1.626811880609608</v>
+        <v>1.530669616777175</v>
       </c>
       <c r="H20">
-        <v>1.403877290439993</v>
+        <v>0.8751500981931031</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1766403706380828</v>
+        <v>0.06085030437605354</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4215465118899573</v>
+        <v>0.4421459973494279</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.590009209067942</v>
+        <v>0.6318105013243978</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.685265251694148</v>
+        <v>5.50650516967255</v>
       </c>
       <c r="C21">
-        <v>0.2212998921098688</v>
+        <v>0.6954868002307819</v>
       </c>
       <c r="D21">
-        <v>0.09683879829545106</v>
+        <v>0.04229022136444271</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.282999791003263</v>
+        <v>1.888367007105444</v>
       </c>
       <c r="G21">
-        <v>1.648389940426483</v>
+        <v>1.686056423544642</v>
       </c>
       <c r="H21">
-        <v>1.406884453677151</v>
+        <v>0.9372519618958393</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1752567318118494</v>
+        <v>0.05957219169828676</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4324228599886482</v>
+        <v>0.4928322347930845</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.566120414912903</v>
+        <v>0.5714641381842833</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.790539850379048</v>
+        <v>5.928173436556676</v>
       </c>
       <c r="C22">
-        <v>0.2358060838079723</v>
+        <v>0.7459299433070896</v>
       </c>
       <c r="D22">
-        <v>0.0971090048304255</v>
+        <v>0.04392260994203667</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.295318491272994</v>
+        <v>1.993364541446795</v>
       </c>
       <c r="G22">
-        <v>1.663445814519719</v>
+        <v>1.792377844847721</v>
       </c>
       <c r="H22">
-        <v>1.409495122421589</v>
+        <v>0.9802716499227699</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1744021610910167</v>
+        <v>0.05883932405751935</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4396791920583638</v>
+        <v>0.5265735218784897</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.551071542582058</v>
+        <v>0.5337111457086916</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.734277123423567</v>
+        <v>5.702509335286834</v>
       </c>
       <c r="C23">
-        <v>0.2280678087917636</v>
+        <v>0.7189532954226365</v>
       </c>
       <c r="D23">
-        <v>0.09696368888151596</v>
+        <v>0.04304852870648901</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.288638951099472</v>
+        <v>1.936852630924733</v>
       </c>
       <c r="G23">
-        <v>1.655322722863417</v>
+        <v>1.735164065342047</v>
       </c>
       <c r="H23">
-        <v>1.408042637653011</v>
+        <v>0.9570739068798275</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1748537148022749</v>
+        <v>0.05922074823675061</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4357928354476428</v>
+        <v>0.5085045347885426</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.55905175339926</v>
+        <v>0.5536997417522649</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.522857133477544</v>
+        <v>4.860399024278252</v>
       </c>
       <c r="C24">
-        <v>0.1986735543734426</v>
+        <v>0.6178742114236968</v>
       </c>
       <c r="D24">
-        <v>0.09643762751888829</v>
+        <v>0.03979710925945312</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.265640675939053</v>
+        <v>1.732674599971901</v>
       </c>
       <c r="G24">
-        <v>1.626475236336233</v>
+        <v>1.528203567589827</v>
       </c>
       <c r="H24">
-        <v>1.403839017405062</v>
+        <v>0.8741729864671584</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1766638253629402</v>
+        <v>0.0608728496753308</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4213712484628616</v>
+        <v>0.4413270034891497</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.590409163516521</v>
+        <v>0.6328239081744895</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.298387212453122</v>
+        <v>3.973678743721337</v>
       </c>
       <c r="C25">
-        <v>0.1667821747808489</v>
+        <v>0.5105902636145743</v>
       </c>
       <c r="D25">
-        <v>0.09592272894656517</v>
+        <v>0.03639601011683524</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.245724875653991</v>
+        <v>1.530344323620568</v>
       </c>
       <c r="G25">
-        <v>1.599425908588898</v>
+        <v>1.322487022289579</v>
       </c>
       <c r="H25">
-        <v>1.402067733234816</v>
+        <v>0.7938315930119302</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1788300258675495</v>
+        <v>0.06306252159848924</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4064534231831658</v>
+        <v>0.3711009797448384</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.626647709989514</v>
+        <v>0.724809001416876</v>
       </c>
       <c r="O25">
         <v>0</v>
